--- a/data/data_ananlyse/sold_history.xlsx
+++ b/data/data_ananlyse/sold_history.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,16 +393,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150323</v>
+        <v>20090209</v>
       </c>
       <c r="C2" t="n">
-        <v>2359.44443421427</v>
+        <v>2349.688010582779</v>
       </c>
       <c r="D2" t="n">
-        <v>3923.083</v>
+        <v>2271.593</v>
       </c>
       <c r="E2" t="n">
-        <v>3972.061</v>
+        <v>2296.672</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20150324</v>
+        <v>20090216</v>
       </c>
       <c r="C3" t="n">
-        <v>2307.982226477065</v>
+        <v>2408.592399993935</v>
       </c>
       <c r="D3" t="n">
-        <v>3980.066</v>
+        <v>2421.187</v>
       </c>
       <c r="E3" t="n">
-        <v>3973.046</v>
+        <v>2462.245</v>
       </c>
     </row>
     <row r="4">
@@ -427,16 +427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20150331</v>
+        <v>20090324</v>
       </c>
       <c r="C4" t="n">
-        <v>11442.66238532865</v>
+        <v>2279.698796497024</v>
       </c>
       <c r="D4" t="n">
-        <v>4138.885</v>
+        <v>2477.567</v>
       </c>
       <c r="E4" t="n">
-        <v>4051.204</v>
+        <v>2451.783</v>
       </c>
     </row>
     <row r="5">
@@ -444,16 +444,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20150402</v>
+        <v>20090401</v>
       </c>
       <c r="C5" t="n">
-        <v>2288.922042295473</v>
+        <v>2326.946810429256</v>
       </c>
       <c r="D5" t="n">
-        <v>4149.946</v>
+        <v>2519.886</v>
       </c>
       <c r="E5" t="n">
-        <v>4124.776</v>
+        <v>2548.222</v>
       </c>
     </row>
     <row r="6">
@@ -461,16 +461,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20150414</v>
+        <v>20090402</v>
       </c>
       <c r="C6" t="n">
-        <v>2311.711290793463</v>
+        <v>2325.585593717561</v>
       </c>
       <c r="D6" t="n">
-        <v>4432.126</v>
+        <v>2558.768</v>
       </c>
       <c r="E6" t="n">
-        <v>4438.184</v>
+        <v>2576.4</v>
       </c>
     </row>
     <row r="7">
@@ -478,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20150417</v>
+        <v>20090414</v>
       </c>
       <c r="C7" t="n">
-        <v>2327.158057508369</v>
+        <v>4652.070161660695</v>
       </c>
       <c r="D7" t="n">
-        <v>4578.679</v>
+        <v>2651.197</v>
       </c>
       <c r="E7" t="n">
-        <v>4596.136</v>
+        <v>2676.872000000001</v>
       </c>
     </row>
     <row r="8">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20150423</v>
+        <v>20090416</v>
       </c>
       <c r="C8" t="n">
-        <v>2298.739131531021</v>
+        <v>2318.126351450152</v>
       </c>
       <c r="D8" t="n">
-        <v>4764.481</v>
+        <v>2690.515</v>
       </c>
       <c r="E8" t="n">
-        <v>4740.892</v>
+        <v>2687.106</v>
       </c>
     </row>
     <row r="9">
@@ -512,16 +512,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20150525</v>
+        <v>20090507</v>
       </c>
       <c r="C9" t="n">
-        <v>2392.928150144364</v>
+        <v>2322.771602357796</v>
       </c>
       <c r="D9" t="n">
-        <v>4949.11</v>
+        <v>2783.577</v>
       </c>
       <c r="E9" t="n">
-        <v>5099.495</v>
+        <v>2767.076</v>
       </c>
     </row>
     <row r="10">
@@ -529,16 +529,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20150526</v>
+        <v>20090602</v>
       </c>
       <c r="C10" t="n">
-        <v>2326.09149392775</v>
+        <v>2310.760310655463</v>
       </c>
       <c r="D10" t="n">
-        <v>5140.798</v>
+        <v>2878.528</v>
       </c>
       <c r="E10" t="n">
-        <v>5198.918</v>
+        <v>2865.099</v>
       </c>
     </row>
     <row r="11">
@@ -546,16 +546,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20150527</v>
+        <v>20090604</v>
       </c>
       <c r="C11" t="n">
-        <v>2295.948241139008</v>
+        <v>2346.417261363586</v>
       </c>
       <c r="D11" t="n">
-        <v>5216.17</v>
+        <v>2924.267000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>5181.434</v>
+        <v>2953.751</v>
       </c>
     </row>
     <row r="12">
@@ -563,16 +563,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20151106</v>
+        <v>20090605</v>
       </c>
       <c r="C12" t="n">
-        <v>2366.689246678703</v>
+        <v>2281.715572116131</v>
       </c>
       <c r="D12" t="n">
-        <v>3698.342</v>
+        <v>2966.065</v>
       </c>
       <c r="E12" t="n">
-        <v>3793.3739</v>
+        <v>2939.306</v>
       </c>
     </row>
     <row r="13">
@@ -580,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20151109</v>
+        <v>20090611</v>
       </c>
       <c r="C13" t="n">
-        <v>7040.875094755539</v>
+        <v>2283.829510280063</v>
       </c>
       <c r="D13" t="n">
-        <v>3796.3792</v>
+        <v>2982.969</v>
       </c>
       <c r="E13" t="n">
-        <v>3840.3547</v>
+        <v>2961.629000000001</v>
       </c>
     </row>
     <row r="14">
@@ -597,16 +597,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20151222</v>
+        <v>20090619</v>
       </c>
       <c r="C14" t="n">
-        <v>2309.25514085969</v>
+        <v>2348.522985398749</v>
       </c>
       <c r="D14" t="n">
-        <v>3872.0975</v>
+        <v>3061.903</v>
       </c>
       <c r="E14" t="n">
-        <v>3876.7325</v>
+        <v>3080.001</v>
       </c>
     </row>
     <row r="15">
@@ -614,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20160815</v>
+        <v>20090622</v>
       </c>
       <c r="C15" t="n">
-        <v>2378.215700416175</v>
+        <v>2294.336732529346</v>
       </c>
       <c r="D15" t="n">
-        <v>3303.4688</v>
+        <v>3106.387</v>
       </c>
       <c r="E15" t="n">
-        <v>3393.4239</v>
+        <v>3082.563</v>
       </c>
     </row>
     <row r="16">
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20160816</v>
+        <v>20090630</v>
       </c>
       <c r="C16" t="n">
-        <v>2314.857376792895</v>
+        <v>4591.560542945062</v>
       </c>
       <c r="D16" t="n">
-        <v>3403.3839</v>
+        <v>3191.641</v>
       </c>
       <c r="E16" t="n">
-        <v>3378.2451</v>
+        <v>3166.474</v>
       </c>
     </row>
     <row r="17">
@@ -648,16 +648,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20161118</v>
+        <v>20090702</v>
       </c>
       <c r="C17" t="n">
-        <v>2289.936630746635</v>
+        <v>2350.757377451885</v>
       </c>
       <c r="D17" t="n">
-        <v>3437.4898</v>
+        <v>3248.204</v>
       </c>
       <c r="E17" t="n">
-        <v>3417.4554</v>
+        <v>3282.359000000001</v>
       </c>
     </row>
     <row r="18">
@@ -665,16 +665,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20161123</v>
+        <v>20090710</v>
       </c>
       <c r="C18" t="n">
-        <v>2306.37960852673</v>
+        <v>2301.013186284152</v>
       </c>
       <c r="D18" t="n">
-        <v>3473.8949</v>
+        <v>3398.911</v>
       </c>
       <c r="E18" t="n">
-        <v>3474.7289</v>
+        <v>3398.31</v>
       </c>
     </row>
     <row r="19">
@@ -682,16 +682,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20161128</v>
+        <v>20090715</v>
       </c>
       <c r="C19" t="n">
-        <v>9242.939536908621</v>
+        <v>2359.042945622155</v>
       </c>
       <c r="D19" t="n">
-        <v>3538.6754</v>
+        <v>3467.132</v>
       </c>
       <c r="E19" t="n">
-        <v>3535.0807</v>
+        <v>3493.305</v>
       </c>
     </row>
     <row r="20">
@@ -699,16 +699,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20161130</v>
+        <v>20090716</v>
       </c>
       <c r="C20" t="n">
-        <v>4586.266749168345</v>
+        <v>2290.317220879772</v>
       </c>
       <c r="D20" t="n">
-        <v>3557.6357</v>
+        <v>3516.778</v>
       </c>
       <c r="E20" t="n">
-        <v>3538.001</v>
+        <v>3501.24</v>
       </c>
     </row>
     <row r="21">
@@ -716,16 +716,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20161202</v>
+        <v>20090721</v>
       </c>
       <c r="C21" t="n">
-        <v>2280.66270485028</v>
+        <v>2270.636106559468</v>
       </c>
       <c r="D21" t="n">
-        <v>3559.7711</v>
+        <v>3603.402</v>
       </c>
       <c r="E21" t="n">
-        <v>3528.9547</v>
+        <v>3539.832000000001</v>
       </c>
     </row>
     <row r="22">
@@ -733,16 +733,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20170626</v>
+        <v>20090804</v>
       </c>
       <c r="C22" t="n">
-        <v>7027.593731460624</v>
+        <v>2307.252192706525</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.0208</v>
+        <v>3803.061</v>
       </c>
       <c r="E22" t="n">
-        <v>3668.0919</v>
+        <v>3786.615</v>
       </c>
     </row>
     <row r="23">
@@ -750,16 +750,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20170627</v>
+        <v>20091110</v>
       </c>
       <c r="C23" t="n">
-        <v>9281.019621345034</v>
+        <v>2296.079508146229</v>
       </c>
       <c r="D23" t="n">
-        <v>3665.5775</v>
+        <v>3520.395</v>
       </c>
       <c r="E23" t="n">
-        <v>3674.7152</v>
+        <v>3503.776</v>
       </c>
     </row>
     <row r="24">
@@ -767,16 +767,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20170714</v>
+        <v>20091117</v>
       </c>
       <c r="C24" t="n">
-        <v>2313.501987074706</v>
+        <v>9256.621581000874</v>
       </c>
       <c r="D24" t="n">
-        <v>3682.6153</v>
+        <v>3644.962</v>
       </c>
       <c r="E24" t="n">
-        <v>3703.094</v>
+        <v>3628.354</v>
       </c>
     </row>
     <row r="25">
@@ -784,16 +784,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20170717</v>
+        <v>20100803</v>
       </c>
       <c r="C25" t="n">
-        <v>6845.524446160514</v>
+        <v>2269.113575984206</v>
       </c>
       <c r="D25" t="n">
-        <v>3700.6179</v>
+        <v>2925.254000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>3663.5575</v>
+        <v>2865.971</v>
       </c>
     </row>
     <row r="26">
@@ -801,16 +801,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20170720</v>
+        <v>20100907</v>
       </c>
       <c r="C26" t="n">
-        <v>9301.321230444382</v>
+        <v>2316.148670708456</v>
       </c>
       <c r="D26" t="n">
-        <v>3725.1436</v>
+        <v>2979.298</v>
       </c>
       <c r="E26" t="n">
-        <v>3747.8843</v>
+        <v>2983.108</v>
       </c>
     </row>
     <row r="27">
@@ -818,16 +818,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20170721</v>
+        <v>20101011</v>
       </c>
       <c r="C27" t="n">
-        <v>2298.490987851821</v>
+        <v>2402.048825406294</v>
       </c>
       <c r="D27" t="n">
-        <v>3738.1847</v>
+        <v>3069.188</v>
       </c>
       <c r="E27" t="n">
-        <v>3728.5976</v>
+        <v>3132.895</v>
       </c>
     </row>
     <row r="28">
@@ -835,16 +835,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20170725</v>
+        <v>20101013</v>
       </c>
       <c r="C28" t="n">
-        <v>2287.184037178281</v>
+        <v>11732.58929103566</v>
       </c>
       <c r="D28" t="n">
-        <v>3742.6405</v>
+        <v>3176.886</v>
       </c>
       <c r="E28" t="n">
-        <v>3719.559</v>
+        <v>3217.577</v>
       </c>
     </row>
     <row r="29">
@@ -852,16 +852,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20170802</v>
+        <v>20101014</v>
       </c>
       <c r="C29" t="n">
-        <v>2296.120426929085</v>
+        <v>4608.011007480332</v>
       </c>
       <c r="D29" t="n">
-        <v>3768.1938</v>
+        <v>3245.133</v>
       </c>
       <c r="E29" t="n">
-        <v>3760.8525</v>
+        <v>3224.14</v>
       </c>
     </row>
     <row r="30">
@@ -869,16 +869,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20170828</v>
+        <v>20101018</v>
       </c>
       <c r="C30" t="n">
-        <v>16321.46833791601</v>
+        <v>16135.87216033925</v>
       </c>
       <c r="D30" t="n">
-        <v>3805.6567</v>
+        <v>3345.804</v>
       </c>
       <c r="E30" t="n">
-        <v>3842.7119</v>
+        <v>3306.16</v>
       </c>
     </row>
     <row r="31">
@@ -886,16 +886,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20170829</v>
+        <v>20101021</v>
       </c>
       <c r="C31" t="n">
-        <v>9225.177368122604</v>
+        <v>9199.562492851603</v>
       </c>
       <c r="D31" t="n">
-        <v>3839.1779</v>
+        <v>3404.721</v>
       </c>
       <c r="E31" t="n">
-        <v>3834.5376</v>
+        <v>3374.685</v>
       </c>
     </row>
     <row r="32">
@@ -903,16 +903,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20170905</v>
+        <v>20101105</v>
       </c>
       <c r="C32" t="n">
-        <v>4619.218845125335</v>
+        <v>2301.127035251549</v>
       </c>
       <c r="D32" t="n">
-        <v>3845.5451</v>
+        <v>3538.988</v>
       </c>
       <c r="E32" t="n">
-        <v>3857.0464</v>
+        <v>3520.798</v>
       </c>
     </row>
     <row r="33">
@@ -920,16 +920,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20170907</v>
+        <v>20120227</v>
       </c>
       <c r="C33" t="n">
-        <v>2289.432419870909</v>
+        <v>4632.736711520351</v>
       </c>
       <c r="D33" t="n">
-        <v>3851.688</v>
+        <v>2658.121</v>
       </c>
       <c r="E33" t="n">
-        <v>3829.8713</v>
+        <v>2656.573</v>
       </c>
     </row>
     <row r="34">
@@ -937,16 +937,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20171009</v>
+        <v>20120314</v>
       </c>
       <c r="C34" t="n">
-        <v>18386.54911321116</v>
+        <v>4451.153522547143</v>
       </c>
       <c r="D34" t="n">
-        <v>3910.1149</v>
+        <v>2694.475</v>
       </c>
       <c r="E34" t="n">
-        <v>3882.2076</v>
+        <v>2605.106</v>
       </c>
     </row>
     <row r="35">
@@ -954,16 +954,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20171016</v>
+        <v>20121226</v>
       </c>
       <c r="C35" t="n">
-        <v>2299.061117151684</v>
+        <v>2323.247037826208</v>
       </c>
       <c r="D35" t="n">
-        <v>3926.2754</v>
+        <v>2445.987</v>
       </c>
       <c r="E35" t="n">
-        <v>3913.4462</v>
+        <v>2457.619</v>
       </c>
     </row>
     <row r="36">
@@ -971,16 +971,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20171025</v>
+        <v>20130104</v>
       </c>
       <c r="C36" t="n">
-        <v>11576.89352988728</v>
+        <v>13770.07748989332</v>
       </c>
       <c r="D36" t="n">
-        <v>3958.1669</v>
+        <v>2551.814</v>
       </c>
       <c r="E36" t="n">
-        <v>3976.949</v>
+        <v>2524.409</v>
       </c>
     </row>
     <row r="37">
@@ -988,16 +988,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20171026</v>
+        <v>20130115</v>
       </c>
       <c r="C37" t="n">
-        <v>2317.319055953541</v>
+        <v>2315.005339700843</v>
       </c>
       <c r="D37" t="n">
-        <v>3980.0479</v>
+        <v>2579.132</v>
       </c>
       <c r="E37" t="n">
-        <v>3993.5752</v>
+        <v>2595.856</v>
       </c>
     </row>
     <row r="38">
@@ -1005,16 +1005,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20171027</v>
+        <v>20130116</v>
       </c>
       <c r="C38" t="n">
-        <v>6965.347050876755</v>
+        <v>4584.437917161627</v>
       </c>
       <c r="D38" t="n">
-        <v>3992.5539</v>
+        <v>2591.365</v>
       </c>
       <c r="E38" t="n">
-        <v>4021.9676</v>
+        <v>2577.092</v>
       </c>
     </row>
     <row r="39">
@@ -1022,16 +1022,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20171030</v>
+        <v>20130129</v>
       </c>
       <c r="C39" t="n">
-        <v>11511.60349056417</v>
+        <v>11642.01551700611</v>
       </c>
       <c r="D39" t="n">
-        <v>4022.1641</v>
+        <v>2655.377</v>
       </c>
       <c r="E39" t="n">
-        <v>4009.7218</v>
+        <v>2675.866</v>
       </c>
     </row>
     <row r="40">
@@ -1039,16 +1039,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20171107</v>
+        <v>20130130</v>
       </c>
       <c r="C40" t="n">
-        <v>2318.210379496099</v>
+        <v>2318.184052041885</v>
       </c>
       <c r="D40" t="n">
-        <v>4022.4018</v>
+        <v>2678.433</v>
       </c>
       <c r="E40" t="n">
-        <v>4054.2465</v>
+        <v>2688.711</v>
       </c>
     </row>
     <row r="41">
@@ -1056,16 +1056,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20171108</v>
+        <v>20130131</v>
       </c>
       <c r="C41" t="n">
-        <v>4607.458870766141</v>
+        <v>4601.851013228123</v>
       </c>
       <c r="D41" t="n">
-        <v>4051.4935</v>
+        <v>2690.951</v>
       </c>
       <c r="E41" t="n">
-        <v>4048.0057</v>
+        <v>2686.882</v>
       </c>
     </row>
     <row r="42">
@@ -1073,16 +1073,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20171110</v>
+        <v>20130204</v>
       </c>
       <c r="C42" t="n">
-        <v>6991.314221699902</v>
+        <v>4645.853674056048</v>
       </c>
       <c r="D42" t="n">
-        <v>4070.2763</v>
+        <v>2753.688</v>
       </c>
       <c r="E42" t="n">
-        <v>4111.9112</v>
+        <v>2748.028</v>
       </c>
     </row>
     <row r="43">
@@ -1090,16 +1090,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20171113</v>
+        <v>20130218</v>
       </c>
       <c r="C43" t="n">
-        <v>4634.371238350918</v>
+        <v>2270.158809138782</v>
       </c>
       <c r="D43" t="n">
-        <v>4115.5507</v>
+        <v>2784.065</v>
       </c>
       <c r="E43" t="n">
-        <v>4128.0733</v>
+        <v>2737.471</v>
       </c>
     </row>
     <row r="44">
@@ -1107,16 +1107,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20171114</v>
+        <v>20130913</v>
       </c>
       <c r="C44" t="n">
-        <v>2283.543143864408</v>
+        <v>2303.754972266381</v>
       </c>
       <c r="D44" t="n">
-        <v>4129.2736</v>
+        <v>2502.54</v>
       </c>
       <c r="E44" t="n">
-        <v>4099.351</v>
+        <v>2488.902</v>
       </c>
     </row>
     <row r="45">
@@ -1124,16 +1124,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20171122</v>
+        <v>20140904</v>
       </c>
       <c r="C45" t="n">
-        <v>6948.355562404739</v>
+        <v>2325.119659295044</v>
       </c>
       <c r="D45" t="n">
-        <v>4228.3721</v>
+        <v>2411.934</v>
       </c>
       <c r="E45" t="n">
-        <v>4227.5666</v>
+        <v>2426.224</v>
       </c>
     </row>
     <row r="46">
@@ -1141,16 +1141,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20180117</v>
+        <v>20140909</v>
       </c>
       <c r="C46" t="n">
-        <v>2304.425278494613</v>
+        <v>4594.373570669352</v>
       </c>
       <c r="D46" t="n">
-        <v>4261.7833</v>
+        <v>2452.227000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>4248.1164</v>
+        <v>2445.224</v>
       </c>
     </row>
     <row r="47">
@@ -1158,16 +1158,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20180119</v>
+        <v>20141008</v>
       </c>
       <c r="C47" t="n">
-        <v>9231.208713316033</v>
+        <v>2321.131015932598</v>
       </c>
       <c r="D47" t="n">
-        <v>4281.9371</v>
+        <v>2460.87</v>
       </c>
       <c r="E47" t="n">
-        <v>4285.395</v>
+        <v>2478.383</v>
       </c>
     </row>
     <row r="48">
@@ -1175,16 +1175,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20180123</v>
+        <v>20141009</v>
       </c>
       <c r="C48" t="n">
-        <v>21041.60718406122</v>
+        <v>20784.30637158549</v>
       </c>
       <c r="D48" t="n">
-        <v>4346.8885</v>
+        <v>2480.197</v>
       </c>
       <c r="E48" t="n">
-        <v>4382.6129</v>
+        <v>2481.955</v>
       </c>
     </row>
     <row r="49">
@@ -1192,16 +1192,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20180124</v>
+        <v>20141103</v>
       </c>
       <c r="C49" t="n">
-        <v>4614.445635218671</v>
+        <v>9267.375291970093</v>
       </c>
       <c r="D49" t="n">
-        <v>4389.4547</v>
+        <v>2515.824</v>
       </c>
       <c r="E49" t="n">
-        <v>4389.8853</v>
+        <v>2512.548</v>
       </c>
     </row>
     <row r="50">
@@ -1209,16 +1209,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20190219</v>
+        <v>20141110</v>
       </c>
       <c r="C50" t="n">
-        <v>4620.615677258017</v>
+        <v>2342.625386103647</v>
       </c>
       <c r="D50" t="n">
-        <v>3454.7216</v>
+        <v>2529.83</v>
       </c>
       <c r="E50" t="n">
-        <v>3439.6078</v>
+        <v>2565.73</v>
       </c>
     </row>
     <row r="51">
@@ -1226,16 +1226,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20190225</v>
+        <v>20141111</v>
       </c>
       <c r="C51" t="n">
-        <v>7309.250956304228</v>
+        <v>18409.95444480291</v>
       </c>
       <c r="D51" t="n">
-        <v>3575.8528</v>
+        <v>2578.438</v>
       </c>
       <c r="E51" t="n">
-        <v>3729.4831</v>
+        <v>2558.612</v>
       </c>
     </row>
     <row r="52">
@@ -1243,16 +1243,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20190226</v>
+        <v>20141113</v>
       </c>
       <c r="C52" t="n">
-        <v>30078.6002069681</v>
+        <v>4595.728231044639</v>
       </c>
       <c r="D52" t="n">
-        <v>3734.7059</v>
+        <v>2597.389</v>
       </c>
       <c r="E52" t="n">
-        <v>3684.6935</v>
+        <v>2579.75</v>
       </c>
     </row>
     <row r="53">
@@ -1260,16 +1260,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20190304</v>
+        <v>20141117</v>
       </c>
       <c r="C53" t="n">
-        <v>4641.404534359396</v>
+        <v>2266.421640252608</v>
       </c>
       <c r="D53" t="n">
-        <v>3783.0367</v>
+        <v>2613.513</v>
       </c>
       <c r="E53" t="n">
-        <v>3794.104</v>
+        <v>2567.101</v>
       </c>
     </row>
     <row r="54">
@@ -1277,16 +1277,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20190306</v>
+        <v>20141125</v>
       </c>
       <c r="C54" t="n">
-        <v>4643.150467351301</v>
+        <v>11756.90242607288</v>
       </c>
       <c r="D54" t="n">
-        <v>3822.8588</v>
+        <v>2650.085</v>
       </c>
       <c r="E54" t="n">
-        <v>3848.0903</v>
+        <v>2685.561</v>
       </c>
     </row>
     <row r="55">
@@ -1294,16 +1294,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20190319</v>
+        <v>20141126</v>
       </c>
       <c r="C55" t="n">
-        <v>4582.297005352518</v>
+        <v>28105.25029506525</v>
       </c>
       <c r="D55" t="n">
-        <v>3856.5885</v>
+        <v>2695.263</v>
       </c>
       <c r="E55" t="n">
-        <v>3833.9626</v>
+        <v>2723.018</v>
       </c>
     </row>
     <row r="56">
@@ -1311,16 +1311,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20190401</v>
+        <v>20141127</v>
       </c>
       <c r="C56" t="n">
-        <v>2357.744070313071</v>
+        <v>7004.840562500923</v>
       </c>
       <c r="D56" t="n">
-        <v>3901.1698</v>
+        <v>2737.03</v>
       </c>
       <c r="E56" t="n">
-        <v>3973.928</v>
+        <v>2754.49</v>
       </c>
     </row>
     <row r="57">
@@ -1328,16 +1328,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20190402</v>
+        <v>20141128</v>
       </c>
       <c r="C57" t="n">
-        <v>13949.72208033612</v>
+        <v>2355.953990093285</v>
       </c>
       <c r="D57" t="n">
-        <v>3986.3443</v>
+        <v>2753.925</v>
       </c>
       <c r="E57" t="n">
-        <v>3971.2852</v>
+        <v>2808.819</v>
       </c>
     </row>
     <row r="58">
@@ -1345,16 +1345,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20190404</v>
+        <v>20141201</v>
       </c>
       <c r="C58" t="n">
-        <v>2333.90730668818</v>
+        <v>48825.43388412545</v>
       </c>
       <c r="D58" t="n">
-        <v>4039.7415</v>
+        <v>2825.611</v>
       </c>
       <c r="E58" t="n">
-        <v>4062.2309</v>
+        <v>2819.812</v>
       </c>
     </row>
     <row r="59">
@@ -1362,15 +1362,1273 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>20141203</v>
+      </c>
+      <c r="C59" t="n">
+        <v>59133.18351041469</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2936.124000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2967.549</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20141204</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19262.13958643299</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2975.403</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3104.351</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20141205</v>
+      </c>
+      <c r="C61" t="n">
+        <v>56786.42124983584</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3143.968</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3124.885</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20141209</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9026.215540876738</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3233.097</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3106.913</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20141217</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7086.990222164905</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3325.82</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3360.598</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20141218</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4598.120068409191</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3359.09</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3345.927</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20141222</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4605.345285037365</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3396.251</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3394.481</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20141229</v>
+      </c>
+      <c r="C66" t="n">
+        <v>16201.76078614557</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3502.183</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3455.455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20150105</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4757.671001040492</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3566.089</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3641.541</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20150106</v>
+      </c>
+      <c r="C68" t="n">
+        <v>18719.02795038835</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3608.428</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3641.059</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20150107</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4634.951926740073</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3620.924</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3643.79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20150108</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6760.603722481064</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3650.073</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3559.259</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20150317</v>
+      </c>
+      <c r="C71" t="n">
+        <v>37393.512283149</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3733.961</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3757.122</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20150318</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11802.75196099372</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3769.086</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3846.055</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20150319</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20798.18351324211</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3851.249</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3839.739</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20150323</v>
+      </c>
+      <c r="C74" t="n">
+        <v>18772.41556323555</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3923.083</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3972.061</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20150324</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6928.047310476526</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3980.066</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3973.046</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20150330</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7072.416672859614</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3999.024</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4088.178</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20150331</v>
+      </c>
+      <c r="C77" t="n">
+        <v>34424.51187222251</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4138.885</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4051.204</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20150402</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2288.922042295473</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4149.946</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4124.776</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20150407</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9342.060280247311</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4213.894</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4260.044</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20150414</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2311.711290793463</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4432.126</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4438.184</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20150417</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2327.158057508369</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4578.679</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4596.136</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20150423</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2298.739131531021</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4764.481</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4740.892</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20150525</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2392.928150144364</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4949.11</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5099.495</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20150526</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2326.09149392775</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5140.798</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5198.918</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20150527</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2295.948241139008</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5216.17</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5181.434</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20151106</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2366.689246678703</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3698.342</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3793.3739</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20151109</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7040.875094755539</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3796.3792</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3840.3547</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20151222</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2309.25514085969</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3872.0975</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3876.7325</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20160815</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2378.215700416175</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3303.4688</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3393.4239</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20160816</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2314.857376792895</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3403.3839</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3378.2451</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20161118</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2289.936630746635</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3437.4898</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3417.4554</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20161123</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2306.37960852673</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3473.8949</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3474.7289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20161128</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9242.939536908621</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3538.6754</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3535.0807</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20161130</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4586.266749168345</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3557.6357</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3538.001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20161202</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2280.66270485028</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3559.7711</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3528.9547</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20170626</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7027.593731460624</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3627.0208</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3668.0919</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20170627</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9281.019621345034</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3665.5775</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3674.7152</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20170714</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2313.501987074706</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3682.6153</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3703.094</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20170717</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6845.524446160514</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3700.6179</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3663.5575</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20170720</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9301.321230444382</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3725.1436</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3747.8843</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20170721</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2298.490987851821</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3738.1847</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3728.5976</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20170725</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2287.184037178281</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3742.6405</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3719.559</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20170802</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2296.120426929085</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3768.1938</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3760.8525</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20170828</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16321.46833791601</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3805.6567</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3842.7119</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20170829</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9225.177368122604</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3839.1779</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3834.5376</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20170905</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4619.218845125335</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3845.5451</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3857.0464</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20170907</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2289.432419870909</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3851.688</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3829.8713</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20171009</v>
+      </c>
+      <c r="C108" t="n">
+        <v>18386.54911321116</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3910.1149</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3882.2076</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20171016</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2299.061117151684</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3926.2754</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3913.4462</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20171025</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11576.89352988728</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3958.1669</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3976.949</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20171026</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2317.319055953541</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3980.0479</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3993.5752</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20171027</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6965.347050876755</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3992.5539</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4021.9676</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20171030</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11511.60349056417</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4022.1641</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4009.7218</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20171107</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2318.210379496099</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4022.4018</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4054.2465</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20171108</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4607.458870766141</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4051.4935</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4048.0057</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20171110</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6991.314221699902</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4070.2763</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4111.9112</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20171113</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4634.371238350918</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4115.5507</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4128.0733</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20171114</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2283.543143864408</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4129.2736</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4099.351</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20171122</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6948.355562404739</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4228.3721</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4227.5666</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20180117</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2304.425278494613</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4261.7833</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4248.1164</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20180119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9231.208713316033</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4281.9371</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4285.395</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20180123</v>
+      </c>
+      <c r="C122" t="n">
+        <v>21041.60718406122</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4346.8885</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4382.6129</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20180124</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4614.445635218671</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4389.4547</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4389.8853</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20190219</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4620.615677258017</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3454.7216</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3439.6078</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20190225</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7309.250956304228</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3575.8528</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3729.4831</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20190226</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30078.6002069681</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3734.7059</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3684.6935</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20190304</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4641.404534359396</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3783.0367</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3794.104</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20190306</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4643.150467351301</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3822.8588</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3848.0903</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20190319</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4582.297005352518</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3856.5885</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3833.9626</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20190401</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2357.744070313071</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3901.1698</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3973.928</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20190402</v>
+      </c>
+      <c r="C131" t="n">
+        <v>13949.72208033612</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3986.3443</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3971.2852</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20190404</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2333.90730668818</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4039.7415</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4062.2309</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>20190408</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C133" t="n">
         <v>2294.653176804235</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D133" t="n">
         <v>4097.1027</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E133" t="n">
         <v>4057.2286</v>
       </c>
     </row>
